--- a/data/case study data_working.xlsx
+++ b/data/case study data_working.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/MIT/generalization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD94E001-9E12-1D4E-B540-6D7314893805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F9FD4-2E11-BE4E-99AB-4C3B14AB1161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="37220" windowHeight="21100" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
+    <workbookView xWindow="7800" yWindow="840" windowWidth="30240" windowHeight="18880" xr2:uid="{9C1DBEC5-9C42-494B-AEAA-1D89B674AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
-    <sheet name="Al" sheetId="3" r:id="rId2"/>
-    <sheet name="Steel" sheetId="4" r:id="rId3"/>
-    <sheet name="Au" sheetId="5" r:id="rId4"/>
-    <sheet name="W" sheetId="6" r:id="rId5"/>
-    <sheet name="Sn" sheetId="7" r:id="rId6"/>
-    <sheet name="Ta" sheetId="8" r:id="rId7"/>
-    <sheet name="Cu" sheetId="9" r:id="rId8"/>
-    <sheet name="Ni" sheetId="10" r:id="rId9"/>
-    <sheet name="Ag" sheetId="11" r:id="rId10"/>
-    <sheet name="Zn" sheetId="12" r:id="rId11"/>
-    <sheet name="Pb" sheetId="13" r:id="rId12"/>
-    <sheet name="Mo" sheetId="14" r:id="rId13"/>
-    <sheet name="Pt" sheetId="15" r:id="rId14"/>
-    <sheet name="Li" sheetId="16" r:id="rId15"/>
+    <sheet name="Landfill" sheetId="18" r:id="rId2"/>
+    <sheet name="Al" sheetId="3" r:id="rId3"/>
+    <sheet name="Steel" sheetId="4" r:id="rId4"/>
+    <sheet name="Au" sheetId="5" r:id="rId5"/>
+    <sheet name="W" sheetId="6" r:id="rId6"/>
+    <sheet name="Sn" sheetId="7" r:id="rId7"/>
+    <sheet name="Ta" sheetId="8" r:id="rId8"/>
+    <sheet name="Cu" sheetId="9" r:id="rId9"/>
+    <sheet name="Ni" sheetId="10" r:id="rId10"/>
+    <sheet name="Ag" sheetId="11" r:id="rId11"/>
+    <sheet name="Zn" sheetId="12" r:id="rId12"/>
+    <sheet name="Pb" sheetId="13" r:id="rId13"/>
+    <sheet name="Mo" sheetId="14" r:id="rId14"/>
+    <sheet name="Pt" sheetId="15" r:id="rId15"/>
+    <sheet name="Li" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="365">
   <si>
     <t>Al</t>
   </si>
@@ -1170,10 +1171,16 @@
     <t>Rough estimate</t>
   </si>
   <si>
-    <t>Generic value</t>
-  </si>
-  <si>
     <t>historical</t>
+  </si>
+  <si>
+    <t>From S&amp;P</t>
+  </si>
+  <si>
+    <t>From regressions, may need to check if scale and s parameters correspond to mean and s</t>
+  </si>
+  <si>
+    <t>Might need ot check this</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,8 +1259,14 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,6 +1281,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -1295,7 +1326,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1369,7 +1400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1725,13 +1763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAEEA05-303F-4351-9872-7B8EAAB6CD92}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,7 +1825,7 @@
       <c r="Q1" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="37" t="s">
         <v>95</v>
       </c>
       <c r="S1" s="37" t="s">
@@ -1964,7 +2003,7 @@
       <c r="Q3" s="20">
         <v>260</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="45">
         <v>298.08800000000002</v>
       </c>
       <c r="S3" s="8" t="s">
@@ -2041,7 +2080,7 @@
       <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="43"/>
+      <c r="R4" s="46"/>
       <c r="S4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2114,7 +2153,7 @@
       <c r="Q5" s="20">
         <v>0.08</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="45">
         <v>0.2</v>
       </c>
       <c r="S5" s="8" t="s">
@@ -2161,7 +2200,7 @@
         <v>232</v>
       </c>
       <c r="AJ5" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AK5" s="9"/>
     </row>
@@ -2211,8 +2250,8 @@
       <c r="Q6" s="18">
         <v>62.5</v>
       </c>
-      <c r="R6" s="43">
-        <v>0</v>
+      <c r="R6" s="46">
+        <v>0.4</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>24</v>
@@ -2308,7 +2347,7 @@
       <c r="Q7" s="20">
         <v>0.4</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="45">
         <v>0.14000000000000001</v>
       </c>
       <c r="S7" s="8" t="s">
@@ -2409,7 +2448,7 @@
       <c r="Q8" s="18">
         <v>0.15</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="46">
         <v>0.05</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -2506,7 +2545,7 @@
       <c r="Q9" s="20">
         <v>0.2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="45">
         <v>0</v>
       </c>
       <c r="S9" s="8" t="s">
@@ -2605,8 +2644,7 @@
       <c r="Q10" s="18">
         <v>0.2</v>
       </c>
-      <c r="R10" s="43">
-        <f>1-R11-R7-R8</f>
+      <c r="R10" s="46">
         <v>0.31</v>
       </c>
       <c r="S10" s="6" t="s">
@@ -2697,7 +2735,7 @@
       <c r="Q11" s="20">
         <v>0.05</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="45">
         <v>0.5</v>
       </c>
       <c r="S11" s="8" t="s">
@@ -2788,7 +2826,7 @@
       <c r="Q12" s="18">
         <v>1</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="46">
         <v>0.95</v>
       </c>
       <c r="S12" s="6" t="s">
@@ -2889,7 +2927,7 @@
       <c r="Q13" s="20">
         <v>1</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="45">
         <v>0.95</v>
       </c>
       <c r="S13" s="8" t="s">
@@ -2980,7 +3018,7 @@
       <c r="Q14" s="18">
         <v>1</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="46">
         <v>0.95</v>
       </c>
       <c r="S14" s="6" t="s">
@@ -3065,7 +3103,7 @@
       <c r="Q15" s="20">
         <v>1</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="45">
         <v>0.95</v>
       </c>
       <c r="S15" s="8" t="s">
@@ -3146,7 +3184,7 @@
       <c r="Q16" s="18">
         <v>1</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="46">
         <v>0.95</v>
       </c>
       <c r="S16" s="6" t="s">
@@ -3229,7 +3267,7 @@
       <c r="Q17" s="20">
         <v>5</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="45">
         <v>1</v>
       </c>
       <c r="S17" s="8" t="s">
@@ -3328,7 +3366,7 @@
       <c r="Q18" s="18">
         <v>30</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="46">
         <v>1</v>
       </c>
       <c r="S18" s="6" t="s">
@@ -3429,7 +3467,7 @@
       <c r="Q19" s="20">
         <v>10</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="45">
         <v>1</v>
       </c>
       <c r="S19" s="8" t="s">
@@ -3510,7 +3548,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="43">
+      <c r="R20" s="46">
         <v>4</v>
       </c>
       <c r="S20" s="6" t="s">
@@ -3595,7 +3633,7 @@
       <c r="Q21" s="20">
         <v>20</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="45">
         <v>16</v>
       </c>
       <c r="S21" s="8" t="s">
@@ -3670,7 +3708,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="26"/>
-      <c r="R22" s="15">
+      <c r="R22" s="47">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="S22" s="6" t="s">
@@ -3731,7 +3769,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="15">
+      <c r="R23" s="47">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="S23" s="8" t="s">
@@ -3792,7 +3830,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="26"/>
-      <c r="R24" s="15">
+      <c r="R24" s="47">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="S24" s="6" t="s">
@@ -3853,7 +3891,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="28"/>
-      <c r="R25" s="15">
+      <c r="R25" s="47">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="S25" s="8" t="s">
@@ -3912,8 +3950,8 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="26"/>
-      <c r="R26" s="15">
-        <v>9.9999999999999995E-7</v>
+      <c r="R26" s="48">
+        <v>0.4</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>24</v>
@@ -3993,8 +4031,8 @@
       <c r="Q27" s="20">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R27" s="15">
-        <v>9.9999999999999995E-7</v>
+      <c r="R27" s="47">
+        <v>0.2</v>
       </c>
       <c r="S27" s="8" t="s">
         <v>31</v>
@@ -4082,8 +4120,8 @@
       <c r="Q28" s="18">
         <v>2.7500000000000002E-4</v>
       </c>
-      <c r="R28" s="15">
-        <v>9.9999999999999995E-7</v>
+      <c r="R28" s="47">
+        <v>0.2</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>31</v>
@@ -4177,7 +4215,7 @@
       <c r="Q29" s="20">
         <v>1</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="50">
         <v>1</v>
       </c>
       <c r="S29" s="8" t="s">
@@ -4250,7 +4288,7 @@
       <c r="Q30" s="18">
         <v>0.625</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="48">
         <v>0.5</v>
       </c>
       <c r="S30" s="6" t="s">
@@ -4339,8 +4377,8 @@
       <c r="Q31" s="20">
         <v>1</v>
       </c>
-      <c r="R31" s="8">
-        <v>0</v>
+      <c r="R31" s="50">
+        <v>1</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>31</v>
@@ -4418,7 +4456,7 @@
       <c r="Q32" s="18">
         <v>1</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="48">
         <v>0</v>
       </c>
       <c r="S32" s="6" t="s">
@@ -4499,8 +4537,8 @@
       <c r="Q33" s="20">
         <v>1</v>
       </c>
-      <c r="R33" s="8">
-        <v>0.5</v>
+      <c r="R33" s="50">
+        <v>0</v>
       </c>
       <c r="S33" s="8" t="s">
         <v>31</v>
@@ -4582,7 +4620,7 @@
       <c r="Q34" s="18">
         <v>1</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="48">
         <v>0</v>
       </c>
       <c r="S34" s="6" t="s">
@@ -4662,7 +4700,7 @@
       <c r="Q35" s="20">
         <v>260</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35" s="50">
         <v>439</v>
       </c>
       <c r="S35" s="8" t="s">
@@ -4779,9 +4817,7 @@
         <v>338</v>
       </c>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6" t="s">
-        <v>361</v>
-      </c>
+      <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
     </row>
     <row r="37" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4833,7 +4869,7 @@
         <v>0.52</v>
       </c>
       <c r="R37" s="8">
-        <v>3.5972</v>
+        <v>186</v>
       </c>
       <c r="S37" s="8" t="s">
         <v>34</v>
@@ -4869,7 +4905,7 @@
         <v>341</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK37" s="9"/>
     </row>
@@ -4914,8 +4950,8 @@
         <v>5.6010000000000001E-3</v>
       </c>
       <c r="Q38" s="18"/>
-      <c r="R38" s="6">
-        <v>3.5370000000000002E-3</v>
+      <c r="R38" s="49">
+        <v>5.5303602419031304</v>
       </c>
       <c r="S38" s="6" t="s">
         <v>34</v>
@@ -4957,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="AJ38" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK38" s="7"/>
     </row>
@@ -5001,8 +5037,8 @@
         <v>0.60348800000000002</v>
       </c>
       <c r="Q39" s="20"/>
-      <c r="R39" s="8">
-        <v>1.119928</v>
+      <c r="R39">
+        <v>2.37751350500784</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>34</v>
@@ -5044,7 +5080,7 @@
         <v>112</v>
       </c>
       <c r="AJ39" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK39" s="9"/>
     </row>
@@ -5089,8 +5125,8 @@
         <v>1.7799999999999999E-4</v>
       </c>
       <c r="Q40" s="18"/>
-      <c r="R40" s="6">
-        <v>2.2100000000000001E-4</v>
+      <c r="R40" s="49">
+        <v>0.98090753516626605</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>34</v>
@@ -5132,7 +5168,7 @@
         <v>112</v>
       </c>
       <c r="AJ40" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK40" s="7"/>
     </row>
@@ -5175,9 +5211,8 @@
       <c r="P41" s="8">
         <v>0.119309</v>
       </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="8">
-        <v>0.90450399999999997</v>
+      <c r="R41" s="49">
+        <v>0.34055052130256103</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>34</v>
@@ -5218,7 +5253,9 @@
       <c r="AI41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AJ41" s="20"/>
+      <c r="AJ41" s="42" t="s">
+        <v>363</v>
+      </c>
       <c r="AK41" s="9"/>
     </row>
     <row r="42" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5271,8 +5308,8 @@
       <c r="Q42" s="18">
         <v>58419.6</v>
       </c>
-      <c r="R42" s="15">
-        <v>44806598</v>
+      <c r="R42" s="47">
+        <v>11120</v>
       </c>
       <c r="S42" s="6" t="s">
         <v>34</v>
@@ -5360,8 +5397,7 @@
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="14">
-        <f>R42-1000*35274</f>
-        <v>9532598</v>
+        <v>200</v>
       </c>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
@@ -5455,8 +5491,8 @@
         <v>0.54192825112107623</v>
       </c>
       <c r="Q44" s="18"/>
-      <c r="R44" s="6">
-        <v>0.41146924083769632</v>
+      <c r="R44" s="49">
+        <v>0.22445599999999999</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>34</v>
@@ -5500,7 +5536,7 @@
         <v>124</v>
       </c>
       <c r="AJ44" s="18" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="AK44" s="7"/>
     </row>
@@ -5546,8 +5582,8 @@
         <v>0.33004484304932735</v>
       </c>
       <c r="Q45" s="28"/>
-      <c r="R45" s="8">
-        <v>0.49825752617801045</v>
+      <c r="R45" s="49">
+        <v>0.45561099999999999</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>34</v>
@@ -5637,8 +5673,8 @@
         <v>0.12645739910313902</v>
       </c>
       <c r="Q46" s="26"/>
-      <c r="R46" s="6">
-        <v>2.6333442408376963E-2</v>
+      <c r="R46" s="49">
+        <v>8.3750000000000005E-3</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>34</v>
@@ -5726,8 +5762,8 @@
         <v>1.569506726457399E-3</v>
       </c>
       <c r="Q47" s="28"/>
-      <c r="R47" s="8">
-        <v>6.1420157068062829E-2</v>
+      <c r="R47" s="49">
+        <v>3.3501000000000003E-2</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>34</v>
@@ -5815,8 +5851,8 @@
         <v>0</v>
       </c>
       <c r="Q48" s="26"/>
-      <c r="R48" s="6">
-        <v>2.5196335078534033E-3</v>
+      <c r="R48" s="49">
+        <v>0.278057</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>34</v>
@@ -5880,7 +5916,6 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
       <c r="S49" s="16" t="s">
         <v>34</v>
       </c>
@@ -5923,7 +5958,6 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
       <c r="S50" s="6" t="s">
         <v>34</v>
       </c>
@@ -5966,7 +6000,6 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
       <c r="S51" s="8" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +6042,6 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
       <c r="S52" s="6" t="s">
         <v>34</v>
       </c>
@@ -6052,7 +6084,6 @@
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
       <c r="S53" s="8" t="s">
         <v>34</v>
       </c>
@@ -6095,7 +6126,6 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
       <c r="S54" s="6" t="s">
         <v>34</v>
       </c>
@@ -6138,7 +6168,6 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
       <c r="S55" s="8" t="s">
         <v>34</v>
       </c>
@@ -6181,7 +6210,6 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
       <c r="S56" s="6" t="s">
         <v>34</v>
       </c>
@@ -6224,7 +6252,6 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
       <c r="S57" s="8" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6294,6 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
       <c r="S58" s="6" t="s">
         <v>34</v>
       </c>
@@ -6310,7 +6336,6 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
       <c r="S59" s="8" t="s">
         <v>34</v>
       </c>
@@ -6353,7 +6378,6 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
       <c r="S60" s="6" t="s">
         <v>34</v>
       </c>
@@ -6396,7 +6420,6 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
       <c r="S61" s="8" t="s">
         <v>34</v>
       </c>
@@ -6439,7 +6462,6 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
       <c r="S62" s="6" t="s">
         <v>34</v>
       </c>
@@ -6482,7 +6504,6 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
       <c r="S63" s="8" t="s">
         <v>34</v>
       </c>
@@ -6525,7 +6546,6 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
       <c r="S64" s="6" t="s">
         <v>34</v>
       </c>
@@ -6568,7 +6588,6 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
       <c r="S65" s="8" t="s">
         <v>34</v>
       </c>
@@ -6611,7 +6630,6 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
       <c r="S66" s="6" t="s">
         <v>34</v>
       </c>
@@ -6654,7 +6672,6 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
       <c r="S67" s="8" t="s">
         <v>34</v>
       </c>
@@ -6697,7 +6714,6 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
       <c r="S68" s="6" t="s">
         <v>34</v>
       </c>
@@ -6740,7 +6756,6 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
       <c r="S69" s="8" t="s">
         <v>34</v>
       </c>
@@ -6783,7 +6798,6 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
       <c r="S70" s="6" t="s">
         <v>34</v>
       </c>
@@ -6826,7 +6840,6 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
       <c r="S71" s="8" t="s">
         <v>34</v>
       </c>
@@ -6869,7 +6882,6 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
       <c r="S72" s="6" t="s">
         <v>34</v>
       </c>
@@ -6912,7 +6924,6 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
       <c r="S73" s="8" t="s">
         <v>34</v>
       </c>
@@ -7006,6 +7017,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7771608-927F-4E4B-98C0-8BD1C2D780A9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7017,7 +7040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A80B4-7C9F-4455-863A-277E0A0ADA6C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7029,7 +7052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E4D7B-7CFC-4824-AFEA-E4C07C4B6BC5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7041,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09EBD6-8E7D-4D2E-919E-2C3665CCA70F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7053,7 +7076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E28CC3-7415-4459-ACB5-EE32C9212512}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7065,12 +7088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAF772-8B76-4702-B768-A08EDD9553AC}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7457,6 +7480,536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8353D7EE-5C66-034F-B42D-DEEC392CD775}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B48" sqref="B44:B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="20">
+        <v>298.08800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="20">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="18">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="20">
+        <v>439.40109999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="44">
+        <v>64866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="44">
+        <v>461.3725490196079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="44">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="44">
+        <v>20.666321243523317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="44">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="43">
+        <v>11120.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>0.22445599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>0.45561099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>8.3750000000000005E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>3.3501000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>0.278057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D63CC-D9E2-4D18-93CD-FFAA257617FA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -7916,7 +8469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF448EC1-E256-442B-8A96-B9961C018A96}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -8505,7 +9058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF787E-9CE6-4767-AADB-C0D49F24A7F3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -8852,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E14CA-A602-4FF7-9D44-04838930B2AC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8872,7 +9425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8560D-51C4-4FC5-A30A-D50BD25B2BD4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8884,7 +9437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FAA359-5A00-444B-B37D-5A9C733CE8E6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8904,7 +9457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70BBC54-9A6A-4436-A684-DF848EF748EA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8914,16 +9467,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A510BC-6699-4D7F-A1BA-2D5B6A269B1B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>